--- a/analysis/output/buckley_specimens_data.xlsx
+++ b/analysis/output/buckley_specimens_data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="139">
   <si>
     <t>species</t>
   </si>
@@ -478,33 +478,2019 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="true" applyFill="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="true">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyFill="true" applyNumberFormat="true" borderId="0" fillId="3" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5"/>
+  <cellXfs count="668">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="3"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="4"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Standard" xfId="0"/>
     <cellStyle name="XLConnect.Header" xfId="1"/>
     <cellStyle name="XLConnect.String" xfId="2"/>
     <cellStyle name="XLConnect.Numeric" xfId="3"/>
@@ -518,1071 +2504,1071 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="140" t="n">
         <v>2990.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="141" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="142" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="143" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="n" s="3">
+      <c r="B6" s="144" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n" s="3">
+      <c r="B7" s="145" t="n">
         <v>869.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n" s="3">
+      <c r="B8" s="146" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="n" s="3">
+      <c r="B9" s="147" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="n" s="3">
+      <c r="B10" s="148" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="n" s="3">
+      <c r="B11" s="149" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="n" s="3">
+      <c r="B12" s="150" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="n" s="3">
+      <c r="B13" s="151" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="n" s="3">
+      <c r="B14" s="152" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="n" s="3">
+      <c r="B15" s="153" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n" s="3">
+      <c r="B16" s="154" t="n">
         <v>675.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="n" s="3">
+      <c r="B17" s="155" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="n" s="3">
+      <c r="B18" s="156" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="n" s="3">
+      <c r="B19" s="157" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="n" s="3">
+      <c r="B20" s="158" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="n" s="3">
+      <c r="B21" s="159" t="n">
         <v>786.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="n" s="3">
+      <c r="B22" s="160" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="n" s="3">
+      <c r="B23" s="161" t="n">
         <v>214.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="n" s="3">
+      <c r="B24" s="162" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="n" s="3">
+      <c r="B25" s="163" t="n">
         <v>311.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="n" s="3">
+      <c r="B26" s="164" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="n" s="3">
+      <c r="B27" s="165" t="n">
         <v>243.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n" s="3">
+      <c r="B28" s="166" t="n">
         <v>86.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="n" s="3">
+      <c r="B29" s="167" t="n">
         <v>261.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="n" s="3">
+      <c r="B30" s="168" t="n">
         <v>680.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="n" s="3">
+      <c r="B31" s="169" t="n">
         <v>534.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="n" s="3">
+      <c r="B32" s="170" t="n">
         <v>190.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="n" s="3">
+      <c r="B33" s="171" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="n" s="3">
+      <c r="B34" s="172" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="n" s="3">
+      <c r="B35" s="173" t="n">
         <v>476.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="n" s="3">
+      <c r="B36" s="174" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="n" s="3">
+      <c r="B37" s="175" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="n" s="3">
+      <c r="B38" s="176" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="n" s="3">
+      <c r="B39" s="177" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="n" s="3">
+      <c r="B40" s="178" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="n" s="3">
+      <c r="B41" s="179" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="n" s="3">
+      <c r="B42" s="180" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="n" s="3">
+      <c r="B43" s="181" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="n" s="3">
+      <c r="B44" s="182" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="n" s="3">
+      <c r="B45" s="183" t="n">
         <v>1068.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="n" s="3">
+      <c r="B46" s="184" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="n" s="3">
+      <c r="B47" s="185" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="n" s="3">
+      <c r="B48" s="186" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="n" s="3">
+      <c r="B49" s="187" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="n" s="3">
+      <c r="B50" s="188" t="n">
         <v>707.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="n" s="3">
+      <c r="B51" s="189" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="n" s="3">
+      <c r="B52" s="190" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B53" t="n" s="3">
+      <c r="B53" s="191" t="n">
         <v>179.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B54" t="n" s="3">
+      <c r="B54" s="192" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B55" t="n" s="3">
+      <c r="B55" s="193" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B56" t="n" s="3">
+      <c r="B56" s="194" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="B57" t="n" s="3">
+      <c r="B57" s="195" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B58" t="n" s="3">
+      <c r="B58" s="196" t="n">
         <v>866.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B59" t="n" s="3">
+      <c r="B59" s="197" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B60" t="n" s="3">
+      <c r="B60" s="198" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B61" t="n" s="3">
+      <c r="B61" s="199" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B62" t="n" s="3">
+      <c r="B62" s="200" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="B63" t="n" s="3">
+      <c r="B63" s="201" t="n">
         <v>1797.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="n" s="3">
+      <c r="B64" s="202" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B65" t="n" s="3">
+      <c r="B65" s="203" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B66" t="n" s="3">
+      <c r="B66" s="204" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B67" t="n" s="3">
+      <c r="B67" s="205" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="B68" t="n" s="3">
+      <c r="B68" s="206" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B69" t="n" s="3">
+      <c r="B69" s="207" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B70" t="n" s="3">
+      <c r="B70" s="208" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B71" t="n" s="3">
+      <c r="B71" s="209" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="n" s="3">
+      <c r="B72" s="210" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B73" t="n" s="3">
+      <c r="B73" s="211" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="B74" t="n" s="3">
+      <c r="B74" s="212" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="B75" t="n" s="3">
+      <c r="B75" s="213" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B76" t="n" s="3">
+      <c r="B76" s="214" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="n" s="3">
+      <c r="B77" s="215" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B78" t="n" s="3">
+      <c r="B78" s="216" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B79" t="n" s="3">
+      <c r="B79" s="217" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="B80" t="n" s="3">
+      <c r="B80" s="218" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="B81" t="n" s="3">
+      <c r="B81" s="219" t="n">
         <v>222.0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="n" s="3">
+      <c r="B82" s="220" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="B83" t="n" s="3">
+      <c r="B83" s="221" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="2">
+      <c r="A84" s="90" t="s">
         <v>84</v>
       </c>
-      <c r="B84" t="n" s="3">
+      <c r="B84" s="222" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B85" t="n" s="3">
+      <c r="B85" s="223" t="n">
         <v>622.0</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B86" t="n" s="3">
+      <c r="B86" s="224" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B87" t="n" s="3">
+      <c r="B87" s="225" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B88" t="n" s="3">
+      <c r="B88" s="226" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="B89" t="n" s="3">
+      <c r="B89" s="227" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="2">
+      <c r="A90" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B90" t="n" s="3">
+      <c r="B90" s="228" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="B91" t="n" s="3">
+      <c r="B91" s="229" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="B92" t="n" s="3">
+      <c r="B92" s="230" t="n">
         <v>1773.0</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="B93" t="n" s="3">
+      <c r="B93" s="231" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" s="100" t="s">
         <v>94</v>
       </c>
-      <c r="B94" t="n" s="3">
+      <c r="B94" s="232" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B95" t="n" s="3">
+      <c r="B95" s="233" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="n" s="3">
+      <c r="B96" s="234" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="B97" t="n" s="3">
+      <c r="B97" s="235" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="B98" t="n" s="3">
+      <c r="B98" s="236" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="n" s="3">
+      <c r="B99" s="237" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="B100" t="n" s="3">
+      <c r="B100" s="238" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="B101" t="n" s="3">
+      <c r="B101" s="239" t="n">
         <v>1508.0</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="B102" t="n" s="3">
+      <c r="B102" s="240" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="B103" t="n" s="3">
+      <c r="B103" s="241" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="B104" t="n" s="3">
+      <c r="B104" s="242" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="B105" t="n" s="3">
+      <c r="B105" s="243" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="B106" t="n" s="3">
+      <c r="B106" s="244" t="n">
         <v>1601.0</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="B107" t="n" s="3">
+      <c r="B107" s="245" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="B108" t="n" s="3">
+      <c r="B108" s="246" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="2">
+      <c r="A109" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="B109" t="n" s="3">
+      <c r="B109" s="247" t="n">
         <v>75.0</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B110" t="n" s="3">
+      <c r="B110" s="248" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" s="117" t="s">
         <v>111</v>
       </c>
-      <c r="B111" t="n" s="3">
+      <c r="B111" s="249" t="n">
         <v>166.0</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="B112" t="n" s="3">
+      <c r="B112" s="250" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="B113" t="n" s="3">
+      <c r="B113" s="251" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="B114" t="n" s="3">
+      <c r="B114" s="252" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="B115" t="n" s="3">
+      <c r="B115" s="253" t="n">
         <v>48.0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="B116" t="n" s="3">
+      <c r="B116" s="254" t="n">
         <v>86.0</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="B117" t="n" s="3">
+      <c r="B117" s="255" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="B118" t="n" s="3">
+      <c r="B118" s="256" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="B119" t="n" s="3">
+      <c r="B119" s="257" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="B120" t="n" s="3">
+      <c r="B120" s="258" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="B121" t="n" s="3">
+      <c r="B121" s="259" t="n">
         <v>308.0</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="B122" t="n" s="3">
+      <c r="B122" s="260" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="B123" t="n" s="3">
+      <c r="B123" s="261" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="B124" t="n" s="3">
+      <c r="B124" s="262" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="B125" t="n" s="3">
+      <c r="B125" s="263" t="n">
         <v>904.0</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" s="132" t="s">
         <v>126</v>
       </c>
-      <c r="B126" t="n" s="3">
+      <c r="B126" s="264" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="B127" t="n" s="3">
+      <c r="B127" s="265" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B128" t="n" s="3">
+      <c r="B128" s="266" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" s="135" t="s">
         <v>129</v>
       </c>
-      <c r="B129" t="n" s="3">
+      <c r="B129" s="267" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="B130" t="n" s="3">
+      <c r="B130" s="268" t="n">
         <v>1049.0</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="B131" t="n" s="3">
+      <c r="B131" s="269" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="B132" t="n" s="3">
+      <c r="B132" s="270" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="B133" t="n" s="3">
+      <c r="B133" s="271" t="n">
         <v>25265.0</v>
       </c>
     </row>
@@ -1600,474 +3586,474 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="272" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="273" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="332" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="333" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="334" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="335" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="278" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="n" s="3">
+      <c r="B6" s="336" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="n" s="3">
+      <c r="B7" s="337" t="n">
         <v>675.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="n" s="3">
+      <c r="B8" s="338" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="281" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="n" s="3">
+      <c r="B9" s="339" t="n">
         <v>786.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="282" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="n" s="3">
+      <c r="B10" s="340" t="n">
         <v>214.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" s="283" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="n" s="3">
+      <c r="B11" s="341" t="n">
         <v>311.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" s="284" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="n" s="3">
+      <c r="B12" s="342" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" s="285" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="n" s="3">
+      <c r="B13" s="343" t="n">
         <v>476.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="n" s="3">
+      <c r="B14" s="344" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" s="287" t="s">
         <v>44</v>
       </c>
-      <c r="B15" t="n" s="3">
+      <c r="B15" s="345" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="n" s="3">
+      <c r="B16" s="346" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" s="289" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="n" s="3">
+      <c r="B17" s="347" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" s="290" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="n" s="3">
+      <c r="B18" s="348" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" s="291" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="n" s="3">
+      <c r="B19" s="349" t="n">
         <v>707.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" s="292" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="n" s="3">
+      <c r="B20" s="350" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" s="293" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="n" s="3">
+      <c r="B21" s="351" t="n">
         <v>179.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" s="294" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="n" s="3">
+      <c r="B22" s="352" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" s="295" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="n" s="3">
+      <c r="B23" s="353" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" s="296" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="n" s="3">
+      <c r="B24" s="354" t="n">
         <v>866.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" s="297" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="n" s="3">
+      <c r="B25" s="355" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" s="298" t="s">
         <v>61</v>
       </c>
-      <c r="B26" t="n" s="3">
+      <c r="B26" s="356" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" s="299" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="n" s="3">
+      <c r="B27" s="357" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="B28" t="n" s="3">
+      <c r="B28" s="358" t="n">
         <v>1797.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" s="301" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="n" s="3">
+      <c r="B29" s="359" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" s="302" t="s">
         <v>76</v>
       </c>
-      <c r="B30" t="n" s="3">
+      <c r="B30" s="360" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" s="303" t="s">
         <v>77</v>
       </c>
-      <c r="B31" t="n" s="3">
+      <c r="B31" s="361" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" s="304" t="s">
         <v>78</v>
       </c>
-      <c r="B32" t="n" s="3">
+      <c r="B32" s="362" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" s="305" t="s">
         <v>81</v>
       </c>
-      <c r="B33" t="n" s="3">
+      <c r="B33" s="363" t="n">
         <v>222.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" s="306" t="s">
         <v>85</v>
       </c>
-      <c r="B34" t="n" s="3">
+      <c r="B34" s="364" t="n">
         <v>622.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" s="307" t="s">
         <v>88</v>
       </c>
-      <c r="B35" t="n" s="3">
+      <c r="B35" s="365" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" s="308" t="s">
         <v>92</v>
       </c>
-      <c r="B36" t="n" s="3">
+      <c r="B36" s="366" t="n">
         <v>1773.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" s="309" t="s">
         <v>93</v>
       </c>
-      <c r="B37" t="n" s="3">
+      <c r="B37" s="367" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" s="310" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="n" s="3">
+      <c r="B38" s="368" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" s="311" t="s">
         <v>95</v>
       </c>
-      <c r="B39" t="n" s="3">
+      <c r="B39" s="369" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="B40" t="n" s="3">
+      <c r="B40" s="370" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" s="313" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="n" s="3">
+      <c r="B41" s="371" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" s="314" t="s">
         <v>98</v>
       </c>
-      <c r="B42" t="n" s="3">
+      <c r="B42" s="372" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" s="315" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="n" s="3">
+      <c r="B43" s="373" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" s="316" t="s">
         <v>101</v>
       </c>
-      <c r="B44" t="n" s="3">
+      <c r="B44" s="374" t="n">
         <v>1508.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" s="317" t="s">
         <v>105</v>
       </c>
-      <c r="B45" t="n" s="3">
+      <c r="B45" s="375" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" s="318" t="s">
         <v>106</v>
       </c>
-      <c r="B46" t="n" s="3">
+      <c r="B46" s="376" t="n">
         <v>1601.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" s="319" t="s">
         <v>111</v>
       </c>
-      <c r="B47" t="n" s="3">
+      <c r="B47" s="377" t="n">
         <v>166.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" s="320" t="s">
         <v>114</v>
       </c>
-      <c r="B48" t="n" s="3">
+      <c r="B48" s="378" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" s="321" t="s">
         <v>117</v>
       </c>
-      <c r="B49" t="n" s="3">
+      <c r="B49" s="379" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" s="322" t="s">
         <v>119</v>
       </c>
-      <c r="B50" t="n" s="3">
+      <c r="B50" s="380" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" s="323" t="s">
         <v>121</v>
       </c>
-      <c r="B51" t="n" s="3">
+      <c r="B51" s="381" t="n">
         <v>308.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" s="324" t="s">
         <v>122</v>
       </c>
-      <c r="B52" t="n" s="3">
+      <c r="B52" s="382" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" s="325" t="s">
         <v>124</v>
       </c>
-      <c r="B53" t="n" s="3">
+      <c r="B53" s="383" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" s="326" t="s">
         <v>125</v>
       </c>
-      <c r="B54" t="n" s="3">
+      <c r="B54" s="384" t="n">
         <v>904.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" s="327" t="s">
         <v>127</v>
       </c>
-      <c r="B55" t="n" s="3">
+      <c r="B55" s="385" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" s="328" t="s">
         <v>128</v>
       </c>
-      <c r="B56" t="n" s="3">
+      <c r="B56" s="386" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" s="329" t="s">
         <v>129</v>
       </c>
-      <c r="B57" t="n" s="3">
+      <c r="B57" s="387" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" s="330" t="s">
         <v>131</v>
       </c>
-      <c r="B58" t="n" s="3">
+      <c r="B58" s="388" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" s="331" t="s">
         <v>134</v>
       </c>
-      <c r="B59" t="n" s="3">
+      <c r="B59" s="389" t="n">
         <v>15585.0</v>
       </c>
     </row>
@@ -2085,610 +4071,610 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="390" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="391" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="467" t="n">
         <v>2990.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="393" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="468" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="394" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="469" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="395" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="470" t="n">
         <v>869.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="396" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n" s="3">
+      <c r="B6" s="471" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="397" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="n" s="3">
+      <c r="B7" s="472" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="398" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="n" s="3">
+      <c r="B8" s="473" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="399" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="n" s="3">
+      <c r="B9" s="474" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="400" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="n" s="3">
+      <c r="B10" s="475" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" s="401" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="n" s="3">
+      <c r="B11" s="476" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" s="402" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="n" s="3">
+      <c r="B12" s="477" t="n">
         <v>39.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" s="403" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="n" s="3">
+      <c r="B13" s="478" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" s="404" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="n" s="3">
+      <c r="B14" s="479" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" s="405" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="n" s="3">
+      <c r="B15" s="480" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" s="406" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="n" s="3">
+      <c r="B16" s="481" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="n" s="3">
+      <c r="B17" s="482" t="n">
         <v>243.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" s="408" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="n" s="3">
+      <c r="B18" s="483" t="n">
         <v>86.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" s="409" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="n" s="3">
+      <c r="B19" s="484" t="n">
         <v>261.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" s="410" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="n" s="3">
+      <c r="B20" s="485" t="n">
         <v>680.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" s="411" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="n" s="3">
+      <c r="B21" s="486" t="n">
         <v>534.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" s="412" t="s">
         <v>32</v>
       </c>
-      <c r="B22" t="n" s="3">
+      <c r="B22" s="487" t="n">
         <v>190.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" s="413" t="s">
         <v>33</v>
       </c>
-      <c r="B23" t="n" s="3">
+      <c r="B23" s="488" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" s="414" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="n" s="3">
+      <c r="B24" s="489" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" s="415" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="n" s="3">
+      <c r="B25" s="490" t="n">
         <v>24.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" s="416" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="n" s="3">
+      <c r="B26" s="491" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" s="417" t="s">
         <v>40</v>
       </c>
-      <c r="B27" t="n" s="3">
+      <c r="B27" s="492" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" s="418" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="n" s="3">
+      <c r="B28" s="493" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" s="419" t="s">
         <v>42</v>
       </c>
-      <c r="B29" t="n" s="3">
+      <c r="B29" s="494" t="n">
         <v>4.0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" s="420" t="s">
         <v>43</v>
       </c>
-      <c r="B30" t="n" s="3">
+      <c r="B30" s="495" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" s="421" t="s">
         <v>45</v>
       </c>
-      <c r="B31" t="n" s="3">
+      <c r="B31" s="496" t="n">
         <v>1068.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" s="422" t="s">
         <v>46</v>
       </c>
-      <c r="B32" t="n" s="3">
+      <c r="B32" s="497" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" s="423" t="s">
         <v>52</v>
       </c>
-      <c r="B33" t="n" s="3">
+      <c r="B33" s="498" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" s="424" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="n" s="3">
+      <c r="B34" s="499" t="n">
         <v>17.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" s="425" t="s">
         <v>57</v>
       </c>
-      <c r="B35" t="n" s="3">
+      <c r="B35" s="500" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" s="426" t="s">
         <v>59</v>
       </c>
-      <c r="B36" t="n" s="3">
+      <c r="B36" s="501" t="n">
         <v>150.0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" s="427" t="s">
         <v>64</v>
       </c>
-      <c r="B37" t="n" s="3">
+      <c r="B37" s="502" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" s="428" t="s">
         <v>65</v>
       </c>
-      <c r="B38" t="n" s="3">
+      <c r="B38" s="503" t="n">
         <v>52.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" s="429" t="s">
         <v>66</v>
       </c>
-      <c r="B39" t="n" s="3">
+      <c r="B39" s="504" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" s="430" t="s">
         <v>67</v>
       </c>
-      <c r="B40" t="n" s="3">
+      <c r="B40" s="505" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="2">
+      <c r="A41" s="431" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="n" s="3">
+      <c r="B41" s="506" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" s="432" t="s">
         <v>69</v>
       </c>
-      <c r="B42" t="n" s="3">
+      <c r="B42" s="507" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" s="433" t="s">
         <v>70</v>
       </c>
-      <c r="B43" t="n" s="3">
+      <c r="B43" s="508" t="n">
         <v>204.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" s="434" t="s">
         <v>71</v>
       </c>
-      <c r="B44" t="n" s="3">
+      <c r="B44" s="509" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" s="435" t="s">
         <v>72</v>
       </c>
-      <c r="B45" t="n" s="3">
+      <c r="B45" s="510" t="n">
         <v>45.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" s="436" t="s">
         <v>73</v>
       </c>
-      <c r="B46" t="n" s="3">
+      <c r="B46" s="511" t="n">
         <v>32.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="2">
+      <c r="A47" s="437" t="s">
         <v>74</v>
       </c>
-      <c r="B47" t="n" s="3">
+      <c r="B47" s="512" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" s="438" t="s">
         <v>79</v>
       </c>
-      <c r="B48" t="n" s="3">
+      <c r="B48" s="513" t="n">
         <v>18.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" s="439" t="s">
         <v>80</v>
       </c>
-      <c r="B49" t="n" s="3">
+      <c r="B49" s="514" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" s="440" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="n" s="3">
+      <c r="B50" s="515" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" s="441" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="n" s="3">
+      <c r="B51" s="516" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" s="442" t="s">
         <v>84</v>
       </c>
-      <c r="B52" t="n" s="3">
+      <c r="B52" s="517" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="2">
+      <c r="A53" s="443" t="s">
         <v>86</v>
       </c>
-      <c r="B53" t="n" s="3">
+      <c r="B53" s="518" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" s="444" t="s">
         <v>87</v>
       </c>
-      <c r="B54" t="n" s="3">
+      <c r="B54" s="519" t="n">
         <v>19.0</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" s="445" t="s">
         <v>89</v>
       </c>
-      <c r="B55" t="n" s="3">
+      <c r="B55" s="520" t="n">
         <v>11.0</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" s="446" t="s">
         <v>90</v>
       </c>
-      <c r="B56" t="n" s="3">
+      <c r="B56" s="521" t="n">
         <v>36.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" s="447" t="s">
         <v>91</v>
       </c>
-      <c r="B57" t="n" s="3">
+      <c r="B57" s="522" t="n">
         <v>3.0</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" s="448" t="s">
         <v>99</v>
       </c>
-      <c r="B58" t="n" s="3">
+      <c r="B58" s="523" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" s="449" t="s">
         <v>102</v>
       </c>
-      <c r="B59" t="n" s="3">
+      <c r="B59" s="524" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" s="450" t="s">
         <v>103</v>
       </c>
-      <c r="B60" t="n" s="3">
+      <c r="B60" s="525" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" s="451" t="s">
         <v>104</v>
       </c>
-      <c r="B61" t="n" s="3">
+      <c r="B61" s="526" t="n">
         <v>54.0</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" s="452" t="s">
         <v>107</v>
       </c>
-      <c r="B62" t="n" s="3">
+      <c r="B62" s="527" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" s="453" t="s">
         <v>108</v>
       </c>
-      <c r="B63" t="n" s="3">
+      <c r="B63" s="528" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" s="454" t="s">
         <v>109</v>
       </c>
-      <c r="B64" t="n" s="3">
+      <c r="B64" s="529" t="n">
         <v>75.0</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" s="455" t="s">
         <v>110</v>
       </c>
-      <c r="B65" t="n" s="3">
+      <c r="B65" s="530" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" s="456" t="s">
         <v>112</v>
       </c>
-      <c r="B66" t="n" s="3">
+      <c r="B66" s="531" t="n">
         <v>8.0</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" s="457" t="s">
         <v>113</v>
       </c>
-      <c r="B67" t="n" s="3">
+      <c r="B67" s="532" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" s="458" t="s">
         <v>115</v>
       </c>
-      <c r="B68" t="n" s="3">
+      <c r="B68" s="533" t="n">
         <v>48.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" s="459" t="s">
         <v>116</v>
       </c>
-      <c r="B69" t="n" s="3">
+      <c r="B69" s="534" t="n">
         <v>86.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" s="460" t="s">
         <v>118</v>
       </c>
-      <c r="B70" t="n" s="3">
+      <c r="B70" s="535" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" s="461" t="s">
         <v>120</v>
       </c>
-      <c r="B71" t="n" s="3">
+      <c r="B71" s="536" t="n">
         <v>37.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" s="462" t="s">
         <v>123</v>
       </c>
-      <c r="B72" t="n" s="3">
+      <c r="B72" s="537" t="n">
         <v>67.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" s="463" t="s">
         <v>126</v>
       </c>
-      <c r="B73" t="n" s="3">
+      <c r="B73" s="538" t="n">
         <v>113.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" s="464" t="s">
         <v>130</v>
       </c>
-      <c r="B74" t="n" s="3">
+      <c r="B74" s="539" t="n">
         <v>1049.0</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" s="465" t="s">
         <v>132</v>
       </c>
-      <c r="B75" t="n" s="3">
+      <c r="B75" s="540" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" s="466" t="s">
         <v>135</v>
       </c>
-      <c r="B76" t="n" s="3">
+      <c r="B76" s="541" t="n">
         <v>9680.0</v>
       </c>
     </row>
@@ -2706,234 +4692,234 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="542" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="543" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="544" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="572" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="545" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="573" t="n">
         <v>675.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="546" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="574" t="n">
         <v>133.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="547" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="575" t="n">
         <v>786.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="548" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="n" s="3">
+      <c r="B6" s="576" t="n">
         <v>214.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="549" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="n" s="3">
+      <c r="B7" s="577" t="n">
         <v>311.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="550" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="n" s="3">
+      <c r="B8" s="578" t="n">
         <v>476.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="551" t="s">
         <v>38</v>
       </c>
-      <c r="B9" t="n" s="3">
+      <c r="B9" s="579" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="552" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="n" s="3">
+      <c r="B10" s="580" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" s="553" t="s">
         <v>47</v>
       </c>
-      <c r="B11" t="n" s="3">
+      <c r="B11" s="581" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" s="554" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="n" s="3">
+      <c r="B12" s="582" t="n">
         <v>145.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" s="555" t="s">
         <v>53</v>
       </c>
-      <c r="B13" t="n" s="3">
+      <c r="B13" s="583" t="n">
         <v>179.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" s="556" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="n" s="3">
+      <c r="B14" s="584" t="n">
         <v>147.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" s="557" t="s">
         <v>58</v>
       </c>
-      <c r="B15" t="n" s="3">
+      <c r="B15" s="585" t="n">
         <v>866.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" s="558" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="n" s="3">
+      <c r="B16" s="586" t="n">
         <v>1797.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" s="559" t="s">
         <v>85</v>
       </c>
-      <c r="B17" t="n" s="3">
+      <c r="B17" s="587" t="n">
         <v>622.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" s="560" t="s">
         <v>92</v>
       </c>
-      <c r="B18" t="n" s="3">
+      <c r="B18" s="588" t="n">
         <v>1773.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" s="561" t="s">
         <v>100</v>
       </c>
-      <c r="B19" t="n" s="3">
+      <c r="B19" s="589" t="n">
         <v>81.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" s="562" t="s">
         <v>101</v>
       </c>
-      <c r="B20" t="n" s="3">
+      <c r="B20" s="590" t="n">
         <v>1508.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" s="563" t="s">
         <v>105</v>
       </c>
-      <c r="B21" t="n" s="3">
+      <c r="B21" s="591" t="n">
         <v>207.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" s="564" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="n" s="3">
+      <c r="B22" s="592" t="n">
         <v>1601.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" s="565" t="s">
         <v>111</v>
       </c>
-      <c r="B23" t="n" s="3">
+      <c r="B23" s="593" t="n">
         <v>166.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" s="566" t="s">
         <v>121</v>
       </c>
-      <c r="B24" t="n" s="3">
+      <c r="B24" s="594" t="n">
         <v>308.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" s="567" t="s">
         <v>124</v>
       </c>
-      <c r="B25" t="n" s="3">
+      <c r="B25" s="595" t="n">
         <v>47.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" s="568" t="s">
         <v>125</v>
       </c>
-      <c r="B26" t="n" s="3">
+      <c r="B26" s="596" t="n">
         <v>904.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" s="569" t="s">
         <v>127</v>
       </c>
-      <c r="B27" t="n" s="3">
+      <c r="B27" s="597" t="n">
         <v>306.0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" s="570" t="s">
         <v>128</v>
       </c>
-      <c r="B28" t="n" s="3">
+      <c r="B28" s="598" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" s="571" t="s">
         <v>136</v>
       </c>
-      <c r="B29" t="n" s="3">
+      <c r="B29" s="599" t="n">
         <v>13661.0</v>
       </c>
     </row>
@@ -2951,58 +4937,58 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="600" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="601" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="602" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="608" t="n">
         <v>707.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="603" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="609" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="604" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="610" t="n">
         <v>222.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="605" t="s">
         <v>93</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="611" t="n">
         <v>34.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="606" t="s">
         <v>129</v>
       </c>
-      <c r="B6" t="n" s="3">
+      <c r="B6" s="612" t="n">
         <v>7.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="607" t="s">
         <v>137</v>
       </c>
-      <c r="B7" t="n" s="3">
+      <c r="B7" s="613" t="n">
         <v>1001.0</v>
       </c>
     </row>
@@ -3020,218 +5006,218 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="614" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="615" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="A2" s="616" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n" s="3">
+      <c r="B2" s="642" t="n">
         <v>6.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" s="617" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="n" s="3">
+      <c r="B3" s="643" t="n">
         <v>127.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="A4" s="618" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n" s="3">
+      <c r="B4" s="644" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="A5" s="619" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="n" s="3">
+      <c r="B5" s="645" t="n">
         <v>14.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="A6" s="620" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="n" s="3">
+      <c r="B6" s="646" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="A7" s="621" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="n" s="3">
+      <c r="B7" s="647" t="n">
         <v>12.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="A8" s="622" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="n" s="3">
+      <c r="B8" s="648" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" s="623" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="n" s="3">
+      <c r="B9" s="649" t="n">
         <v>76.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" s="624" t="s">
         <v>60</v>
       </c>
-      <c r="B10" t="n" s="3">
+      <c r="B10" s="650" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" s="625" t="s">
         <v>62</v>
       </c>
-      <c r="B11" t="n" s="3">
+      <c r="B11" s="651" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" s="626" t="s">
         <v>75</v>
       </c>
-      <c r="B12" t="n" s="3">
+      <c r="B12" s="652" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" s="627" t="s">
         <v>76</v>
       </c>
-      <c r="B13" t="n" s="3">
+      <c r="B13" s="653" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" s="628" t="s">
         <v>77</v>
       </c>
-      <c r="B14" t="n" s="3">
+      <c r="B14" s="654" t="n">
         <v>31.0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="2">
+      <c r="A15" s="629" t="s">
         <v>78</v>
       </c>
-      <c r="B15" t="n" s="3">
+      <c r="B15" s="655" t="n">
         <v>62.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" s="630" t="s">
         <v>88</v>
       </c>
-      <c r="B16" t="n" s="3">
+      <c r="B16" s="656" t="n">
         <v>9.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" s="631" t="s">
         <v>94</v>
       </c>
-      <c r="B17" t="n" s="3">
+      <c r="B17" s="657" t="n">
         <v>22.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" s="632" t="s">
         <v>95</v>
       </c>
-      <c r="B18" t="n" s="3">
+      <c r="B18" s="658" t="n">
         <v>41.0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" s="633" t="s">
         <v>96</v>
       </c>
-      <c r="B19" t="n" s="3">
+      <c r="B19" s="659" t="n">
         <v>49.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" s="634" t="s">
         <v>97</v>
       </c>
-      <c r="B20" t="n" s="3">
+      <c r="B20" s="660" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" s="635" t="s">
         <v>98</v>
       </c>
-      <c r="B21" t="n" s="3">
+      <c r="B21" s="661" t="n">
         <v>172.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" s="636" t="s">
         <v>114</v>
       </c>
-      <c r="B22" t="n" s="3">
+      <c r="B22" s="662" t="n">
         <v>13.0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" s="637" t="s">
         <v>117</v>
       </c>
-      <c r="B23" t="n" s="3">
+      <c r="B23" s="663" t="n">
         <v>27.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" s="638" t="s">
         <v>119</v>
       </c>
-      <c r="B24" t="n" s="3">
+      <c r="B24" s="664" t="n">
         <v>16.0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" s="639" t="s">
         <v>122</v>
       </c>
-      <c r="B25" t="n" s="3">
+      <c r="B25" s="665" t="n">
         <v>23.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" s="640" t="s">
         <v>131</v>
       </c>
-      <c r="B26" t="n" s="3">
+      <c r="B26" s="666" t="n">
         <v>122.0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" s="641" t="s">
         <v>138</v>
       </c>
-      <c r="B27" t="n" s="3">
+      <c r="B27" s="667" t="n">
         <v>923.0</v>
       </c>
     </row>
